--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1911.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1911.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A8FE90-EE99-4B76-8AD1-D324AE961924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F7D325-B89D-4B9D-AE82-86427AC5B343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58050" yWindow="285" windowWidth="28830" windowHeight="23010" activeTab="1" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{12F455DF-F5AE-4C7C-8D7D-90E85F5741B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="205">
   <si>
     <t>губ</t>
   </si>
@@ -643,6 +643,15 @@
   </si>
   <si>
     <t>чс-уез-о YY</t>
+  </si>
+  <si>
+    <t>v-чж</t>
+  </si>
+  <si>
+    <t>v-чр</t>
+  </si>
+  <si>
+    <t>v-чс</t>
   </si>
 </sst>
 </file>
@@ -669,7 +678,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,6 +697,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -701,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -714,6 +729,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -4736,13 +4755,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6728A5B8-47D6-4990-9138-FC82311471F1}">
-  <dimension ref="A1:AC149"/>
+  <dimension ref="A1:AG149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T66" sqref="T66"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4768,9 +4787,10 @@
     <col min="26" max="27" width="10.578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.20703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.68359375" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="8.83984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4855,8 +4875,17 @@
       <c r="AC1" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE1" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -4948,8 +4977,20 @@
         <f>Z2+AA2-AB2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE2" s="8">
+        <f>B2-H2-T2</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="8">
+        <f>C2-L2-X2</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="8">
+        <f>D2-P2-AB2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5041,8 +5082,20 @@
         <f t="shared" ref="AC3:AC66" si="5">Z3+AA3-AB3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE3" s="8">
+        <f t="shared" ref="AE3:AE66" si="6">B3-H3-T3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="8">
+        <f t="shared" ref="AF3:AF66" si="7">C3-L3-X3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="8">
+        <f t="shared" ref="AG3:AG66" si="8">D3-P3-AB3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -5134,8 +5187,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE4" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -5227,8 +5292,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE5" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -5320,8 +5397,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE6" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -5413,8 +5502,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE7" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -5506,8 +5607,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE8" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -5599,8 +5712,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE9" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -5610,8 +5735,8 @@
       <c r="C10" s="3">
         <v>235427</v>
       </c>
-      <c r="D10" s="3">
-        <v>154261</v>
+      <c r="D10" s="9">
+        <v>154264</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
@@ -5692,8 +5817,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE10" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -5785,8 +5922,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE11" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -5878,8 +6027,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE12" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -5971,8 +6132,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE13" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -6064,8 +6237,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE14" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -6157,8 +6342,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE15" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -6250,8 +6447,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE16" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -6343,8 +6552,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE17" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -6436,8 +6657,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE18" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -6529,8 +6762,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE19" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -6622,8 +6867,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE20" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -6715,8 +6972,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE21" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -6808,8 +7077,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE22" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -6901,8 +7182,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE23" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -6994,8 +7287,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE24" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -7087,8 +7392,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE25" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -7180,8 +7497,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE26" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -7273,8 +7602,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE27" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -7366,8 +7707,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE28" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -7377,8 +7730,8 @@
       <c r="C29" s="3">
         <v>96669</v>
       </c>
-      <c r="D29" s="3">
-        <v>64034</v>
+      <c r="D29" s="9">
+        <v>64084</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3">
@@ -7459,8 +7812,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE29" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -7552,8 +7917,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE30" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -7645,8 +8022,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE31" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -7738,8 +8127,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE32" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -7831,8 +8232,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE33" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -7924,8 +8337,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE34" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -8017,8 +8442,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE35" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -8110,8 +8547,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE36" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -8203,8 +8652,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE37" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -8296,8 +8757,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE38" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -8389,8 +8862,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE39" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -8482,8 +8967,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE40" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -8575,8 +9072,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE41" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -8668,19 +9177,31 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE42" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>112</v>
       </c>
       <c r="B43" s="3">
         <v>9790224</v>
       </c>
-      <c r="C43" s="3">
-        <v>393861</v>
-      </c>
-      <c r="D43" s="3">
-        <v>203612</v>
+      <c r="C43" s="9">
+        <v>393864</v>
+      </c>
+      <c r="D43" s="9">
+        <v>203642</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3">
@@ -8761,8 +9282,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE43" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -8772,8 +9305,8 @@
       <c r="C44" s="3">
         <v>183146</v>
       </c>
-      <c r="D44" s="3">
-        <v>104501</v>
+      <c r="D44" s="9">
+        <v>104500</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3">
@@ -8854,8 +9387,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE44" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -8947,8 +9492,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE45" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -9040,8 +9597,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE46" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -9133,8 +9702,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE47" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -9226,8 +9807,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE48" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -9319,8 +9912,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE49" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -9412,8 +10017,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE50" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -9505,8 +10122,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE51" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -9598,8 +10227,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE52" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>120</v>
       </c>
@@ -9691,8 +10332,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE53" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -9784,8 +10437,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE54" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -9877,8 +10542,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE55" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -9970,8 +10647,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE56" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -10063,8 +10752,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE57" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -10156,8 +10857,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE58" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>126</v>
       </c>
@@ -10249,8 +10962,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE59" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -10342,8 +11067,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE60" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -10435,8 +11172,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE61" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -10528,8 +11277,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE62" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -10621,8 +11382,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE63" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -10714,8 +11487,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE64" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -10807,8 +11592,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE65" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -10900,8 +11697,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE66" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -10925,7 +11734,7 @@
         <v>433992</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" ref="I67:I120" si="6">F67+G67-H67</f>
+        <f t="shared" ref="I67:I120" si="9">F67+G67-H67</f>
         <v>0</v>
       </c>
       <c r="J67" s="3">
@@ -10938,7 +11747,7 @@
         <v>12608</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" ref="M67:M120" si="7">J67+K67-L67</f>
+        <f t="shared" ref="M67:M120" si="10">J67+K67-L67</f>
         <v>0</v>
       </c>
       <c r="N67" s="3">
@@ -10951,7 +11760,7 @@
         <v>10267</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" ref="Q67:Q120" si="8">N67+O67-P67</f>
+        <f t="shared" ref="Q67:Q120" si="11">N67+O67-P67</f>
         <v>0</v>
       </c>
       <c r="R67" s="3">
@@ -10964,7 +11773,7 @@
         <v>1010632</v>
       </c>
       <c r="U67" s="5">
-        <f t="shared" ref="U67:U120" si="9">R67+S67-T67</f>
+        <f t="shared" ref="U67:U120" si="12">R67+S67-T67</f>
         <v>0</v>
       </c>
       <c r="V67" s="3">
@@ -10977,7 +11786,7 @@
         <v>19317</v>
       </c>
       <c r="Y67" s="5">
-        <f t="shared" ref="Y67:Y120" si="10">V67+W67-X67</f>
+        <f t="shared" ref="Y67:Y120" si="13">V67+W67-X67</f>
         <v>0</v>
       </c>
       <c r="Z67" s="3">
@@ -10990,11 +11799,23 @@
         <v>15264</v>
       </c>
       <c r="AC67" s="5">
-        <f t="shared" ref="AC67:AC120" si="11">Z67+AA67-AB67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="AC67:AC120" si="14">Z67+AA67-AB67</f>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="8">
+        <f t="shared" ref="AE67:AE122" si="15">B67-H67-T67</f>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="8">
+        <f t="shared" ref="AF67:AF122" si="16">C67-L67-X67</f>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="8">
+        <f t="shared" ref="AG67:AG122" si="17">D67-P67-AB67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -11018,7 +11839,7 @@
         <v>84866</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J68" s="3">
@@ -11031,7 +11852,7 @@
         <v>2771</v>
       </c>
       <c r="M68" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N68" s="3">
@@ -11044,7 +11865,7 @@
         <v>2446</v>
       </c>
       <c r="Q68" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R68" s="3">
@@ -11057,7 +11878,7 @@
         <v>385868</v>
       </c>
       <c r="U68" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V68" s="3">
@@ -11070,7 +11891,7 @@
         <v>8978</v>
       </c>
       <c r="Y68" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z68" s="3">
@@ -11083,11 +11904,23 @@
         <v>6530</v>
       </c>
       <c r="AC68" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -11111,7 +11944,7 @@
         <v>714228</v>
       </c>
       <c r="I69" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J69" s="3">
@@ -11124,7 +11957,7 @@
         <v>20506</v>
       </c>
       <c r="M69" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N69" s="3">
@@ -11137,7 +11970,7 @@
         <v>15896</v>
       </c>
       <c r="Q69" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R69" s="3">
@@ -11150,7 +11983,7 @@
         <v>1978603</v>
       </c>
       <c r="U69" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V69" s="3">
@@ -11163,7 +11996,7 @@
         <v>42528</v>
       </c>
       <c r="Y69" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z69" s="3">
@@ -11176,11 +12009,23 @@
         <v>31489</v>
       </c>
       <c r="AC69" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF69" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -11204,7 +12049,7 @@
         <v>16148568</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J70" s="3">
@@ -11217,7 +12062,7 @@
         <v>550390</v>
       </c>
       <c r="M70" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N70" s="3">
@@ -11230,7 +12075,7 @@
         <v>391459</v>
       </c>
       <c r="Q70" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R70" s="3">
@@ -11243,7 +12088,7 @@
         <v>105437135</v>
       </c>
       <c r="U70" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V70" s="3">
@@ -11256,7 +12101,7 @@
         <v>4749496</v>
       </c>
       <c r="Y70" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z70" s="3">
@@ -11269,11 +12114,23 @@
         <v>2832861</v>
       </c>
       <c r="AC70" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -11297,7 +12154,7 @@
         <v>149459</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J71" s="3">
@@ -11310,7 +12167,7 @@
         <v>4923</v>
       </c>
       <c r="M71" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N71" s="3">
@@ -11323,7 +12180,7 @@
         <v>3156</v>
       </c>
       <c r="Q71" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R71" s="3">
@@ -11336,7 +12193,7 @@
         <v>1697090</v>
       </c>
       <c r="U71" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V71" s="3">
@@ -11349,7 +12206,7 @@
         <v>53573</v>
       </c>
       <c r="Y71" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z71" s="3">
@@ -11362,11 +12219,23 @@
         <v>31103</v>
       </c>
       <c r="AC71" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE71" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -11376,8 +12245,8 @@
       <c r="C72" s="3">
         <v>21929</v>
       </c>
-      <c r="D72" s="3">
-        <v>16746</v>
+      <c r="D72" s="9">
+        <v>16748</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3">
@@ -11390,7 +12259,7 @@
         <v>797093</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J72" s="3">
@@ -11403,7 +12272,7 @@
         <v>21929</v>
       </c>
       <c r="M72" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N72" s="3">
@@ -11416,7 +12285,7 @@
         <v>16748</v>
       </c>
       <c r="Q72" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R72" s="3">
@@ -11429,7 +12298,7 @@
         <v>0</v>
       </c>
       <c r="U72" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V72" s="3">
@@ -11442,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="Y72" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z72" s="3">
@@ -11455,11 +12324,23 @@
         <v>0</v>
       </c>
       <c r="AC72" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE72" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG72" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -11483,7 +12364,7 @@
         <v>134584</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J73" s="3">
@@ -11496,7 +12377,7 @@
         <v>3807</v>
       </c>
       <c r="M73" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N73" s="3">
@@ -11509,7 +12390,7 @@
         <v>2214</v>
       </c>
       <c r="Q73" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R73" s="3">
@@ -11522,7 +12403,7 @@
         <v>1220763</v>
       </c>
       <c r="U73" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V73" s="3">
@@ -11535,7 +12416,7 @@
         <v>42891</v>
       </c>
       <c r="Y73" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z73" s="3">
@@ -11548,11 +12429,23 @@
         <v>23932</v>
       </c>
       <c r="AC73" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -11576,7 +12469,7 @@
         <v>76661</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J74" s="3">
@@ -11589,7 +12482,7 @@
         <v>2701</v>
       </c>
       <c r="M74" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N74" s="3">
@@ -11602,7 +12495,7 @@
         <v>1354</v>
       </c>
       <c r="Q74" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R74" s="3">
@@ -11615,7 +12508,7 @@
         <v>924159</v>
       </c>
       <c r="U74" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V74" s="3">
@@ -11628,7 +12521,7 @@
         <v>30809</v>
       </c>
       <c r="Y74" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z74" s="3">
@@ -11641,11 +12534,23 @@
         <v>17297</v>
       </c>
       <c r="AC74" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG74" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>136</v>
       </c>
@@ -11669,7 +12574,7 @@
         <v>79507</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J75" s="3">
@@ -11682,7 +12587,7 @@
         <v>1631</v>
       </c>
       <c r="M75" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N75" s="3">
@@ -11695,7 +12600,7 @@
         <v>1227</v>
       </c>
       <c r="Q75" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R75" s="3">
@@ -11708,7 +12613,7 @@
         <v>636854</v>
       </c>
       <c r="U75" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V75" s="3">
@@ -11721,7 +12626,7 @@
         <v>18212</v>
       </c>
       <c r="Y75" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z75" s="3">
@@ -11734,11 +12639,23 @@
         <v>10842</v>
       </c>
       <c r="AC75" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>137</v>
       </c>
@@ -11762,7 +12679,7 @@
         <v>180070</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J76" s="3">
@@ -11775,7 +12692,7 @@
         <v>4627</v>
       </c>
       <c r="M76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N76" s="3">
@@ -11788,7 +12705,7 @@
         <v>3188</v>
       </c>
       <c r="Q76" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R76" s="3">
@@ -11801,7 +12718,7 @@
         <v>1444136</v>
       </c>
       <c r="U76" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V76" s="3">
@@ -11814,7 +12731,7 @@
         <v>45841</v>
       </c>
       <c r="Y76" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z76" s="3">
@@ -11827,11 +12744,23 @@
         <v>25094</v>
       </c>
       <c r="AC76" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF76" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG76" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -11841,8 +12770,8 @@
       <c r="C77" s="3">
         <v>109889</v>
       </c>
-      <c r="D77" s="3">
-        <v>50206</v>
+      <c r="D77" s="9">
+        <v>50208</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3">
@@ -11855,7 +12784,7 @@
         <v>675217</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J77" s="3">
@@ -11868,7 +12797,7 @@
         <v>39778</v>
       </c>
       <c r="M77" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N77" s="3">
@@ -11881,7 +12810,7 @@
         <v>19394</v>
       </c>
       <c r="Q77" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R77" s="3">
@@ -11894,7 +12823,7 @@
         <v>1541094</v>
       </c>
       <c r="U77" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V77" s="3">
@@ -11907,7 +12836,7 @@
         <v>70111</v>
       </c>
       <c r="Y77" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z77" s="3">
@@ -11920,19 +12849,31 @@
         <v>30814</v>
       </c>
       <c r="AC77" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF77" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG77" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>139</v>
       </c>
       <c r="B78" s="3">
         <v>768323</v>
       </c>
-      <c r="C78" s="3">
-        <v>22691</v>
+      <c r="C78" s="9">
+        <v>22891</v>
       </c>
       <c r="D78" s="3">
         <v>15820</v>
@@ -11948,7 +12889,7 @@
         <v>90520</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J78" s="3">
@@ -11961,7 +12902,7 @@
         <v>2335</v>
       </c>
       <c r="M78" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N78" s="3">
@@ -11974,7 +12915,7 @@
         <v>1830</v>
       </c>
       <c r="Q78" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R78" s="3">
@@ -11987,7 +12928,7 @@
         <v>677803</v>
       </c>
       <c r="U78" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V78" s="3">
@@ -12000,7 +12941,7 @@
         <v>20556</v>
       </c>
       <c r="Y78" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z78" s="3">
@@ -12013,11 +12954,23 @@
         <v>13990</v>
       </c>
       <c r="AC78" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE78" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF78" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG78" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -12041,7 +12994,7 @@
         <v>97812</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J79" s="3">
@@ -12054,7 +13007,7 @@
         <v>3970</v>
       </c>
       <c r="M79" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N79" s="3">
@@ -12067,7 +13020,7 @@
         <v>2507</v>
       </c>
       <c r="Q79" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R79" s="3">
@@ -12080,7 +13033,7 @@
         <v>1146393</v>
       </c>
       <c r="U79" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V79" s="3">
@@ -12093,7 +13046,7 @@
         <v>37156</v>
       </c>
       <c r="Y79" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z79" s="3">
@@ -12106,19 +13059,31 @@
         <v>22148</v>
       </c>
       <c r="AC79" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE79" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF79" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG79" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="3">
         <v>655740</v>
       </c>
-      <c r="C80" s="3">
-        <v>14462</v>
+      <c r="C80" s="9">
+        <v>14482</v>
       </c>
       <c r="D80" s="3">
         <v>9637</v>
@@ -12134,7 +13099,7 @@
         <v>70443</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J80" s="3">
@@ -12147,7 +13112,7 @@
         <v>1425</v>
       </c>
       <c r="M80" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N80" s="3">
@@ -12160,7 +13125,7 @@
         <v>868</v>
       </c>
       <c r="Q80" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R80" s="3">
@@ -12173,7 +13138,7 @@
         <v>585297</v>
       </c>
       <c r="U80" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V80" s="3">
@@ -12186,7 +13151,7 @@
         <v>13057</v>
       </c>
       <c r="Y80" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z80" s="3">
@@ -12199,11 +13164,23 @@
         <v>8769</v>
       </c>
       <c r="AC80" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE80" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF80" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG80" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>141</v>
       </c>
@@ -12227,7 +13204,7 @@
         <v>109365</v>
       </c>
       <c r="I81" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J81" s="3">
@@ -12240,7 +13217,7 @@
         <v>2599</v>
       </c>
       <c r="M81" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N81" s="3">
@@ -12253,7 +13230,7 @@
         <v>1436</v>
       </c>
       <c r="Q81" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R81" s="3">
@@ -12266,7 +13243,7 @@
         <v>940394</v>
       </c>
       <c r="U81" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V81" s="3">
@@ -12279,7 +13256,7 @@
         <v>27261</v>
       </c>
       <c r="Y81" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z81" s="3">
@@ -12292,11 +13269,23 @@
         <v>16126</v>
       </c>
       <c r="AC81" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE81" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF81" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG81" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -12320,7 +13309,7 @@
         <v>2460731</v>
       </c>
       <c r="I82" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J82" s="3">
@@ -12333,7 +13322,7 @@
         <v>89725</v>
       </c>
       <c r="M82" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N82" s="3">
@@ -12346,7 +13335,7 @@
         <v>53922</v>
       </c>
       <c r="Q82" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R82" s="3">
@@ -12359,7 +13348,7 @@
         <v>10813983</v>
       </c>
       <c r="U82" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V82" s="3">
@@ -12372,7 +13361,7 @@
         <v>359467</v>
       </c>
       <c r="Y82" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z82" s="3">
@@ -12385,11 +13374,23 @@
         <v>200115</v>
       </c>
       <c r="AC82" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE82" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF82" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG82" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>143</v>
       </c>
@@ -12413,7 +13414,7 @@
         <v>18609299</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J83" s="3">
@@ -12426,7 +13427,7 @@
         <v>640115</v>
       </c>
       <c r="M83" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N83" s="3">
@@ -12439,7 +13440,7 @@
         <v>445381</v>
       </c>
       <c r="Q83" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R83" s="3">
@@ -12452,7 +13453,7 @@
         <v>116251118</v>
       </c>
       <c r="U83" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V83" s="3">
@@ -12465,7 +13466,7 @@
         <v>5108963</v>
       </c>
       <c r="Y83" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z83" s="3">
@@ -12478,11 +13479,23 @@
         <v>3032976</v>
       </c>
       <c r="AC83" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE83" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF83" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG83" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>144</v>
       </c>
@@ -12506,7 +13519,7 @@
         <v>89650</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J84" s="3">
@@ -12519,7 +13532,7 @@
         <v>1723</v>
       </c>
       <c r="M84" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N84" s="3">
@@ -12532,7 +13545,7 @@
         <v>970</v>
       </c>
       <c r="Q84" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R84" s="3">
@@ -12545,7 +13558,7 @@
         <v>701913</v>
       </c>
       <c r="U84" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V84" s="3">
@@ -12558,7 +13571,7 @@
         <v>20083</v>
       </c>
       <c r="Y84" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z84" s="3">
@@ -12571,11 +13584,23 @@
         <v>14200</v>
       </c>
       <c r="AC84" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE84" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF84" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG84" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -12599,7 +13624,7 @@
         <v>357190</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J85" s="3">
@@ -12612,7 +13637,7 @@
         <v>9314</v>
       </c>
       <c r="M85" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N85" s="3">
@@ -12625,7 +13650,7 @@
         <v>5839</v>
       </c>
       <c r="Q85" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R85" s="3">
@@ -12638,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="U85" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V85" s="3">
@@ -12651,7 +13676,7 @@
         <v>0</v>
       </c>
       <c r="Y85" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z85" s="3">
@@ -12664,11 +13689,23 @@
         <v>0</v>
       </c>
       <c r="AC85" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE85" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF85" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG85" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>146</v>
       </c>
@@ -12692,7 +13729,7 @@
         <v>38410</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J86" s="3">
@@ -12705,7 +13742,7 @@
         <v>712</v>
       </c>
       <c r="M86" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N86" s="3">
@@ -12718,7 +13755,7 @@
         <v>609</v>
       </c>
       <c r="Q86" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R86" s="3">
@@ -12731,7 +13768,7 @@
         <v>128142</v>
       </c>
       <c r="U86" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V86" s="3">
@@ -12744,7 +13781,7 @@
         <v>3109</v>
       </c>
       <c r="Y86" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z86" s="3">
@@ -12757,11 +13794,23 @@
         <v>2026</v>
       </c>
       <c r="AC86" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE86" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF86" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG86" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -12785,7 +13834,7 @@
         <v>65586</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J87" s="3">
@@ -12798,7 +13847,7 @@
         <v>1512</v>
       </c>
       <c r="M87" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N87" s="3">
@@ -12811,7 +13860,7 @@
         <v>1101</v>
       </c>
       <c r="Q87" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R87" s="3">
@@ -12824,7 +13873,7 @@
         <v>619359</v>
       </c>
       <c r="U87" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V87" s="3">
@@ -12837,7 +13886,7 @@
         <v>14784</v>
       </c>
       <c r="Y87" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z87" s="3">
@@ -12850,11 +13899,23 @@
         <v>9124</v>
       </c>
       <c r="AC87" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE87" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF87" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG87" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -12878,7 +13939,7 @@
         <v>148044</v>
       </c>
       <c r="I88" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J88" s="3">
@@ -12891,7 +13952,7 @@
         <v>2194</v>
       </c>
       <c r="M88" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N88" s="3">
@@ -12904,7 +13965,7 @@
         <v>1500</v>
       </c>
       <c r="Q88" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R88" s="3">
@@ -12917,7 +13978,7 @@
         <v>1082187</v>
       </c>
       <c r="U88" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V88" s="3">
@@ -12930,7 +13991,7 @@
         <v>23260</v>
       </c>
       <c r="Y88" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z88" s="3">
@@ -12943,11 +14004,23 @@
         <v>15070</v>
       </c>
       <c r="AC88" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE88" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF88" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG88" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>149</v>
       </c>
@@ -12971,7 +14044,7 @@
         <v>43900</v>
       </c>
       <c r="I89" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J89" s="3">
@@ -12984,7 +14057,7 @@
         <v>1474</v>
       </c>
       <c r="M89" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N89" s="3">
@@ -12997,7 +14070,7 @@
         <v>638</v>
       </c>
       <c r="Q89" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R89" s="3">
@@ -13010,7 +14083,7 @@
         <v>333300</v>
       </c>
       <c r="U89" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V89" s="3">
@@ -13023,7 +14096,7 @@
         <v>11877</v>
       </c>
       <c r="Y89" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z89" s="3">
@@ -13036,11 +14109,23 @@
         <v>5658</v>
       </c>
       <c r="AC89" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE89" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF89" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG89" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>150</v>
       </c>
@@ -13064,7 +14149,7 @@
         <v>235619</v>
       </c>
       <c r="I90" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J90" s="3">
@@ -13077,7 +14162,7 @@
         <v>9856</v>
       </c>
       <c r="M90" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N90" s="3">
@@ -13090,7 +14175,7 @@
         <v>7387</v>
       </c>
       <c r="Q90" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R90" s="3">
@@ -13103,7 +14188,7 @@
         <v>2600562</v>
       </c>
       <c r="U90" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V90" s="3">
@@ -13116,7 +14201,7 @@
         <v>137110</v>
       </c>
       <c r="Y90" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z90" s="3">
@@ -13129,11 +14214,23 @@
         <v>75955</v>
       </c>
       <c r="AC90" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE90" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF90" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG90" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>151</v>
       </c>
@@ -13157,7 +14254,7 @@
         <v>99185</v>
       </c>
       <c r="I91" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J91" s="3">
@@ -13170,7 +14267,7 @@
         <v>2282</v>
       </c>
       <c r="M91" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N91" s="3">
@@ -13183,7 +14280,7 @@
         <v>1574</v>
       </c>
       <c r="Q91" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R91" s="3">
@@ -13196,7 +14293,7 @@
         <v>1014106</v>
       </c>
       <c r="U91" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V91" s="3">
@@ -13209,7 +14306,7 @@
         <v>27657</v>
       </c>
       <c r="Y91" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z91" s="3">
@@ -13222,11 +14319,23 @@
         <v>14044</v>
       </c>
       <c r="AC91" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE91" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF91" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG91" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>152</v>
       </c>
@@ -13250,7 +14359,7 @@
         <v>76795</v>
       </c>
       <c r="I92" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J92" s="3">
@@ -13263,7 +14372,7 @@
         <v>2454</v>
       </c>
       <c r="M92" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N92" s="3">
@@ -13276,7 +14385,7 @@
         <v>1612</v>
       </c>
       <c r="Q92" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R92" s="3">
@@ -13289,7 +14398,7 @@
         <v>1153796</v>
       </c>
       <c r="U92" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V92" s="3">
@@ -13302,7 +14411,7 @@
         <v>66092</v>
       </c>
       <c r="Y92" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z92" s="3">
@@ -13315,11 +14424,23 @@
         <v>34308</v>
       </c>
       <c r="AC92" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE92" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF92" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG92" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>153</v>
       </c>
@@ -13343,7 +14464,7 @@
         <v>199049</v>
       </c>
       <c r="I93" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J93" s="3">
@@ -13356,7 +14477,7 @@
         <v>7392</v>
       </c>
       <c r="M93" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N93" s="3">
@@ -13369,7 +14490,7 @@
         <v>4575</v>
       </c>
       <c r="Q93" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R93" s="3">
@@ -13382,7 +14503,7 @@
         <v>997448</v>
       </c>
       <c r="U93" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V93" s="3">
@@ -13395,7 +14516,7 @@
         <v>41552</v>
       </c>
       <c r="Y93" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z93" s="3">
@@ -13408,11 +14529,23 @@
         <v>24691</v>
       </c>
       <c r="AC93" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE93" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF93" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG93" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>154</v>
       </c>
@@ -13436,7 +14569,7 @@
         <v>386874</v>
       </c>
       <c r="I94" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J94" s="3">
@@ -13449,7 +14582,7 @@
         <v>6095</v>
       </c>
       <c r="M94" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N94" s="3">
@@ -13462,7 +14595,7 @@
         <v>4374</v>
       </c>
       <c r="Q94" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R94" s="3">
@@ -13475,7 +14608,7 @@
         <v>992098</v>
       </c>
       <c r="U94" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V94" s="3">
@@ -13488,7 +14621,7 @@
         <v>36581</v>
       </c>
       <c r="Y94" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z94" s="3">
@@ -13501,11 +14634,23 @@
         <v>23150</v>
       </c>
       <c r="AC94" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE94" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF94" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG94" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>155</v>
       </c>
@@ -13529,7 +14674,7 @@
         <v>80234</v>
       </c>
       <c r="I95" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J95" s="3">
@@ -13542,7 +14687,7 @@
         <v>2339</v>
       </c>
       <c r="M95" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N95" s="3">
@@ -13555,7 +14700,7 @@
         <v>1556</v>
       </c>
       <c r="Q95" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R95" s="3">
@@ -13568,7 +14713,7 @@
         <v>68896</v>
       </c>
       <c r="U95" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V95" s="3">
@@ -13581,7 +14726,7 @@
         <v>2680</v>
       </c>
       <c r="Y95" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z95" s="3">
@@ -13594,11 +14739,23 @@
         <v>1053</v>
       </c>
       <c r="AC95" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE95" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF95" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG95" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -13622,7 +14779,7 @@
         <v>91368</v>
       </c>
       <c r="I96" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J96" s="3">
@@ -13635,7 +14792,7 @@
         <v>2528</v>
       </c>
       <c r="M96" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N96" s="3">
@@ -13648,7 +14805,7 @@
         <v>1696</v>
       </c>
       <c r="Q96" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R96" s="3">
@@ -13661,7 +14818,7 @@
         <v>813977</v>
       </c>
       <c r="U96" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V96" s="3">
@@ -13674,7 +14831,7 @@
         <v>31370</v>
       </c>
       <c r="Y96" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z96" s="3">
@@ -13687,19 +14844,31 @@
         <v>18928</v>
       </c>
       <c r="AC96" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE96" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF96" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG96" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>157</v>
       </c>
       <c r="B97" s="3">
         <v>12417688</v>
       </c>
-      <c r="C97" s="3">
-        <v>466039</v>
+      <c r="C97" s="9">
+        <v>466030</v>
       </c>
       <c r="D97" s="3">
         <v>271638</v>
@@ -13715,7 +14884,7 @@
         <v>1911904</v>
       </c>
       <c r="I97" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J97" s="3">
@@ -13728,7 +14897,7 @@
         <v>49875</v>
       </c>
       <c r="M97" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N97" s="3">
@@ -13741,7 +14910,7 @@
         <v>33431</v>
       </c>
       <c r="Q97" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R97" s="3">
@@ -13754,7 +14923,7 @@
         <v>10505784</v>
       </c>
       <c r="U97" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V97" s="3">
@@ -13767,7 +14936,7 @@
         <v>416155</v>
       </c>
       <c r="Y97" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z97" s="3">
@@ -13780,11 +14949,23 @@
         <v>238207</v>
       </c>
       <c r="AC97" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE97" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF97" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG97" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>158</v>
       </c>
@@ -13808,7 +14989,7 @@
         <v>75566</v>
       </c>
       <c r="I98" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J98" s="3">
@@ -13821,7 +15002,7 @@
         <v>2832</v>
       </c>
       <c r="M98" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N98" s="3">
@@ -13834,7 +15015,7 @@
         <v>1731</v>
       </c>
       <c r="Q98" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R98" s="3">
@@ -13847,7 +15028,7 @@
         <v>193177</v>
       </c>
       <c r="U98" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V98" s="3">
@@ -13860,7 +15041,7 @@
         <v>9623</v>
       </c>
       <c r="Y98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z98" s="3">
@@ -13873,11 +15054,23 @@
         <v>4914</v>
       </c>
       <c r="AC98" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE98" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF98" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG98" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>159</v>
       </c>
@@ -13901,7 +15094,7 @@
         <v>123409</v>
       </c>
       <c r="I99" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J99" s="3">
@@ -13914,7 +15107,7 @@
         <v>4588</v>
       </c>
       <c r="M99" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N99" s="3">
@@ -13927,7 +15120,7 @@
         <v>3577</v>
       </c>
       <c r="Q99" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R99" s="3">
@@ -13940,7 +15133,7 @@
         <v>843000</v>
       </c>
       <c r="U99" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V99" s="3">
@@ -13953,7 +15146,7 @@
         <v>47393</v>
       </c>
       <c r="Y99" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z99" s="3">
@@ -13966,11 +15159,23 @@
         <v>24596</v>
       </c>
       <c r="AC99" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE99" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF99" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG99" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -13994,7 +15199,7 @@
         <v>116803</v>
       </c>
       <c r="I100" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J100" s="3">
@@ -14007,7 +15212,7 @@
         <v>4436</v>
       </c>
       <c r="M100" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N100" s="3">
@@ -14020,7 +15225,7 @@
         <v>1968</v>
       </c>
       <c r="Q100" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R100" s="3">
@@ -14033,7 +15238,7 @@
         <v>771840</v>
       </c>
       <c r="U100" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V100" s="3">
@@ -14046,7 +15251,7 @@
         <v>31586</v>
       </c>
       <c r="Y100" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z100" s="3">
@@ -14059,11 +15264,23 @@
         <v>18891</v>
       </c>
       <c r="AC100" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE100" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF100" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG100" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>161</v>
       </c>
@@ -14087,7 +15304,7 @@
         <v>65064</v>
       </c>
       <c r="I101" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J101" s="3">
@@ -14100,7 +15317,7 @@
         <v>6405</v>
       </c>
       <c r="M101" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N101" s="3">
@@ -14113,7 +15330,7 @@
         <v>4081</v>
       </c>
       <c r="Q101" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R101" s="3">
@@ -14126,7 +15343,7 @@
         <v>584071</v>
       </c>
       <c r="U101" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V101" s="3">
@@ -14139,7 +15356,7 @@
         <v>27915</v>
       </c>
       <c r="Y101" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z101" s="3">
@@ -14152,11 +15369,23 @@
         <v>16921</v>
       </c>
       <c r="AC101" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE101" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF101" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG101" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>162</v>
       </c>
@@ -14180,7 +15409,7 @@
         <v>2173</v>
       </c>
       <c r="I102" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J102" s="3">
@@ -14193,7 +15422,7 @@
         <v>145</v>
       </c>
       <c r="M102" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N102" s="3">
@@ -14206,7 +15435,7 @@
         <v>89</v>
       </c>
       <c r="Q102" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R102" s="3">
@@ -14219,7 +15448,7 @@
         <v>32503</v>
       </c>
       <c r="U102" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V102" s="3">
@@ -14232,7 +15461,7 @@
         <v>488</v>
       </c>
       <c r="Y102" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z102" s="3">
@@ -14245,11 +15474,23 @@
         <v>380</v>
       </c>
       <c r="AC102" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE102" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF102" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG102" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>163</v>
       </c>
@@ -14273,7 +15514,7 @@
         <v>192773</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J103" s="3">
@@ -14286,7 +15527,7 @@
         <v>4861</v>
       </c>
       <c r="M103" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N103" s="3">
@@ -14299,7 +15540,7 @@
         <v>3482</v>
       </c>
       <c r="Q103" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R103" s="3">
@@ -14312,7 +15553,7 @@
         <v>352624</v>
       </c>
       <c r="U103" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V103" s="3">
@@ -14325,7 +15566,7 @@
         <v>12132</v>
       </c>
       <c r="Y103" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z103" s="3">
@@ -14338,11 +15579,23 @@
         <v>5779</v>
       </c>
       <c r="AC103" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE103" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF103" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG103" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>164</v>
       </c>
@@ -14366,7 +15619,7 @@
         <v>181</v>
       </c>
       <c r="I104" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="J104" s="3" t="s">
@@ -14379,7 +15632,7 @@
         <v>181</v>
       </c>
       <c r="M104" s="5" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N104" s="3" t="s">
@@ -14392,7 +15645,7 @@
         <v>181</v>
       </c>
       <c r="Q104" s="5" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="R104" s="3">
@@ -14405,7 +15658,7 @@
         <v>8605</v>
       </c>
       <c r="U104" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V104" s="3">
@@ -14418,7 +15671,7 @@
         <v>201</v>
       </c>
       <c r="Y104" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z104" s="3">
@@ -14431,11 +15684,23 @@
         <v>78</v>
       </c>
       <c r="AC104" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE104" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF104" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG104" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>165</v>
       </c>
@@ -14459,7 +15724,7 @@
         <v>142372</v>
       </c>
       <c r="I105" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J105" s="3">
@@ -14472,7 +15737,7 @@
         <v>5680</v>
       </c>
       <c r="M105" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N105" s="3">
@@ -14485,7 +15750,7 @@
         <v>4855</v>
       </c>
       <c r="Q105" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R105" s="3">
@@ -14498,7 +15763,7 @@
         <v>1896383</v>
       </c>
       <c r="U105" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V105" s="3">
@@ -14511,7 +15776,7 @@
         <v>107919</v>
       </c>
       <c r="Y105" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z105" s="3">
@@ -14524,11 +15789,23 @@
         <v>71831</v>
       </c>
       <c r="AC105" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE105" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF105" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG105" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>166</v>
       </c>
@@ -14552,7 +15829,7 @@
         <v>299797</v>
       </c>
       <c r="I106" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J106" s="3">
@@ -14565,7 +15842,7 @@
         <v>13957</v>
       </c>
       <c r="M106" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N106" s="3">
@@ -14578,7 +15855,7 @@
         <v>10121</v>
       </c>
       <c r="Q106" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R106" s="3">
@@ -14591,7 +15868,7 @@
         <v>3550869</v>
       </c>
       <c r="U106" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V106" s="3">
@@ -14604,7 +15881,7 @@
         <v>194202</v>
       </c>
       <c r="Y106" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z106" s="3">
@@ -14617,11 +15894,23 @@
         <v>112612</v>
       </c>
       <c r="AC106" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE106" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF106" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG106" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>167</v>
       </c>
@@ -14645,7 +15934,7 @@
         <v>11304</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J107" s="3">
@@ -14658,7 +15947,7 @@
         <v>791</v>
       </c>
       <c r="M107" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N107" s="3">
@@ -14671,7 +15960,7 @@
         <v>585</v>
       </c>
       <c r="Q107" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R107" s="3">
@@ -14684,7 +15973,7 @@
         <v>246434</v>
       </c>
       <c r="U107" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V107" s="3">
@@ -14697,7 +15986,7 @@
         <v>10457</v>
       </c>
       <c r="Y107" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z107" s="3">
@@ -14710,11 +15999,23 @@
         <v>7575</v>
       </c>
       <c r="AC107" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE107" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF107" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG107" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>168</v>
       </c>
@@ -14738,7 +16039,7 @@
         <v>1029261</v>
       </c>
       <c r="I108" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J108" s="3">
@@ -14751,7 +16052,7 @@
         <v>43695</v>
       </c>
       <c r="M108" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N108" s="3">
@@ -14764,7 +16065,7 @@
         <v>30489</v>
       </c>
       <c r="Q108" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R108" s="3">
@@ -14777,7 +16078,7 @@
         <v>8479506</v>
       </c>
       <c r="U108" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V108" s="3">
@@ -14790,7 +16091,7 @@
         <v>441916</v>
       </c>
       <c r="Y108" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z108" s="3">
@@ -14803,11 +16104,23 @@
         <v>263577</v>
       </c>
       <c r="AC108" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE108" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF108" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG108" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>169</v>
       </c>
@@ -14831,7 +16144,7 @@
         <v>196175</v>
       </c>
       <c r="I109" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J109" s="3">
@@ -14844,7 +16157,7 @@
         <v>7109</v>
       </c>
       <c r="M109" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N109" s="3">
@@ -14857,7 +16170,7 @@
         <v>4862</v>
       </c>
       <c r="Q109" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R109" s="3">
@@ -14870,7 +16183,7 @@
         <v>1273226</v>
       </c>
       <c r="U109" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V109" s="3">
@@ -14883,7 +16196,7 @@
         <v>55430</v>
       </c>
       <c r="Y109" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z109" s="3">
@@ -14896,11 +16209,23 @@
         <v>32198</v>
       </c>
       <c r="AC109" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE109" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF109" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG109" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>170</v>
       </c>
@@ -14924,7 +16249,7 @@
         <v>63000</v>
       </c>
       <c r="I110" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J110" s="3">
@@ -14937,7 +16262,7 @@
         <v>2715</v>
       </c>
       <c r="M110" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N110" s="3">
@@ -14950,7 +16275,7 @@
         <v>2369</v>
       </c>
       <c r="Q110" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R110" s="3">
@@ -14963,7 +16288,7 @@
         <v>388300</v>
       </c>
       <c r="U110" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V110" s="3">
@@ -14976,7 +16301,7 @@
         <v>17780</v>
       </c>
       <c r="Y110" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z110" s="3">
@@ -14989,11 +16314,23 @@
         <v>8899</v>
       </c>
       <c r="AC110" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE110" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF110" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG110" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>171</v>
       </c>
@@ -15017,7 +16354,7 @@
         <v>193400</v>
       </c>
       <c r="I111" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J111" s="3" t="s">
@@ -15030,7 +16367,7 @@
         <v>181</v>
       </c>
       <c r="M111" s="5" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N111" s="3" t="s">
@@ -15043,7 +16380,7 @@
         <v>181</v>
       </c>
       <c r="Q111" s="5" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="R111" s="3">
@@ -15056,7 +16393,7 @@
         <v>990200</v>
       </c>
       <c r="U111" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V111" s="3" t="s">
@@ -15069,7 +16406,7 @@
         <v>181</v>
       </c>
       <c r="Y111" s="5" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z111" s="3" t="s">
@@ -15082,11 +16419,23 @@
         <v>181</v>
       </c>
       <c r="AC111" s="5" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE111" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF111" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG111" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>172</v>
       </c>
@@ -15110,7 +16459,7 @@
         <v>66492</v>
       </c>
       <c r="I112" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J112" s="3">
@@ -15123,7 +16472,7 @@
         <v>3288</v>
       </c>
       <c r="M112" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N112" s="3">
@@ -15136,7 +16485,7 @@
         <v>1874</v>
       </c>
       <c r="Q112" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R112" s="3">
@@ -15149,7 +16498,7 @@
         <v>807268</v>
       </c>
       <c r="U112" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V112" s="3">
@@ -15162,7 +16511,7 @@
         <v>18689</v>
       </c>
       <c r="Y112" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z112" s="3">
@@ -15175,11 +16524,23 @@
         <v>10432</v>
       </c>
       <c r="AC112" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE112" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF112" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG112" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>173</v>
       </c>
@@ -15203,7 +16564,7 @@
         <v>100392</v>
       </c>
       <c r="I113" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J113" s="3">
@@ -15216,7 +16577,7 @@
         <v>4294</v>
       </c>
       <c r="M113" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N113" s="3">
@@ -15229,7 +16590,7 @@
         <v>2485</v>
       </c>
       <c r="Q113" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R113" s="3">
@@ -15242,7 +16603,7 @@
         <v>1127361</v>
       </c>
       <c r="U113" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V113" s="3">
@@ -15255,7 +16616,7 @@
         <v>39018</v>
       </c>
       <c r="Y113" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z113" s="3">
@@ -15268,11 +16629,23 @@
         <v>25691</v>
       </c>
       <c r="AC113" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE113" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF113" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG113" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>174</v>
       </c>
@@ -15296,7 +16669,7 @@
         <v>319267</v>
       </c>
       <c r="I114" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J114" s="3">
@@ -15309,7 +16682,7 @@
         <v>10766</v>
       </c>
       <c r="M114" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N114" s="3">
@@ -15322,7 +16695,7 @@
         <v>6490</v>
       </c>
       <c r="Q114" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R114" s="3">
@@ -15335,7 +16708,7 @@
         <v>1592197</v>
       </c>
       <c r="U114" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V114" s="3">
@@ -15348,7 +16721,7 @@
         <v>56127</v>
       </c>
       <c r="Y114" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z114" s="3">
@@ -15361,11 +16734,23 @@
         <v>32308</v>
       </c>
       <c r="AC114" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE114" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF114" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG114" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>175</v>
       </c>
@@ -15389,7 +16774,7 @@
         <v>43524</v>
       </c>
       <c r="I115" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J115" s="3">
@@ -15402,7 +16787,7 @@
         <v>1352</v>
       </c>
       <c r="M115" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N115" s="3">
@@ -15415,7 +16800,7 @@
         <v>1065</v>
       </c>
       <c r="Q115" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R115" s="3">
@@ -15428,7 +16813,7 @@
         <v>705619</v>
       </c>
       <c r="U115" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V115" s="7">
@@ -15441,7 +16826,7 @@
         <v>32972</v>
       </c>
       <c r="Y115" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z115" s="3">
@@ -15454,16 +16839,28 @@
         <v>20944</v>
       </c>
       <c r="AC115" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE115" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF115" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG115" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>176</v>
       </c>
-      <c r="B116" s="3">
-        <v>804215</v>
+      <c r="B116" s="9">
+        <v>804245</v>
       </c>
       <c r="C116" s="3">
         <v>19079</v>
@@ -15482,7 +16879,7 @@
         <v>63045</v>
       </c>
       <c r="I116" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J116" s="3">
@@ -15495,7 +16892,7 @@
         <v>2471</v>
       </c>
       <c r="M116" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N116" s="3">
@@ -15508,7 +16905,7 @@
         <v>1851</v>
       </c>
       <c r="Q116" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R116" s="3">
@@ -15521,7 +16918,7 @@
         <v>741200</v>
       </c>
       <c r="U116" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V116" s="3">
@@ -15534,7 +16931,7 @@
         <v>16608</v>
       </c>
       <c r="Y116" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z116" s="3">
@@ -15547,11 +16944,23 @@
         <v>12889</v>
       </c>
       <c r="AC116" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE116" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF116" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG116" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>177</v>
       </c>
@@ -15575,7 +16984,7 @@
         <v>395355</v>
       </c>
       <c r="I117" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J117" s="3">
@@ -15588,7 +16997,7 @@
         <v>12523</v>
       </c>
       <c r="M117" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N117" s="3">
@@ -15601,7 +17010,7 @@
         <v>8763</v>
       </c>
       <c r="Q117" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R117" s="3">
@@ -15614,7 +17023,7 @@
         <v>1667176</v>
       </c>
       <c r="U117" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V117" s="3">
@@ -15627,7 +17036,7 @@
         <v>49269</v>
       </c>
       <c r="Y117" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z117" s="3">
@@ -15640,11 +17049,23 @@
         <v>26715</v>
       </c>
       <c r="AC117" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE117" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF117" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG117" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>178</v>
       </c>
@@ -15668,7 +17089,7 @@
         <v>1440650</v>
       </c>
       <c r="I118" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J118" s="3">
@@ -15681,7 +17102,7 @@
         <v>44518</v>
       </c>
       <c r="M118" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N118" s="3">
@@ -15694,7 +17115,7 @@
         <v>29759</v>
       </c>
       <c r="Q118" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R118" s="3">
@@ -15707,7 +17128,7 @@
         <v>9292547</v>
       </c>
       <c r="U118" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V118" s="3">
@@ -15720,7 +17141,7 @@
         <v>285893</v>
       </c>
       <c r="Y118" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z118" s="3">
@@ -15733,11 +17154,23 @@
         <v>170076</v>
       </c>
       <c r="AC118" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE118" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF118" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG118" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>179</v>
       </c>
@@ -15761,7 +17194,7 @@
         <v>4381815</v>
       </c>
       <c r="I119" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J119" s="3">
@@ -15774,7 +17207,7 @@
         <v>138088</v>
       </c>
       <c r="M119" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N119" s="3">
@@ -15787,7 +17220,7 @@
         <v>93679</v>
       </c>
       <c r="Q119" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R119" s="3">
@@ -15800,7 +17233,7 @@
         <v>28277837</v>
       </c>
       <c r="U119" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V119" s="3">
@@ -15813,7 +17246,7 @@
         <v>1143964</v>
       </c>
       <c r="Y119" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z119" s="3">
@@ -15826,11 +17259,23 @@
         <v>671860</v>
       </c>
       <c r="AC119" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE119" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF119" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG119" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>180</v>
       </c>
@@ -15854,7 +17299,7 @@
         <v>22991114</v>
       </c>
       <c r="I120" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J120" s="3">
@@ -15867,7 +17312,7 @@
         <v>778203</v>
       </c>
       <c r="M120" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N120" s="3">
@@ -15880,7 +17325,7 @@
         <v>539060</v>
       </c>
       <c r="Q120" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R120" s="3">
@@ -15893,7 +17338,7 @@
         <v>144528955</v>
       </c>
       <c r="U120" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V120" s="3">
@@ -15906,7 +17351,7 @@
         <v>6252927</v>
       </c>
       <c r="Y120" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z120" s="3">
@@ -15919,11 +17364,23 @@
         <v>3704836</v>
       </c>
       <c r="AC120" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE120" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF120" s="8">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG120" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -15952,8 +17409,11 @@
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
       <c r="AC121" s="5"/>
-    </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE121" s="8"/>
+      <c r="AF121" s="8"/>
+      <c r="AG121" s="8"/>
+    </row>
+    <row r="122" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -15982,8 +17442,11 @@
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
       <c r="AC122" s="5"/>
-    </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE122" s="8"/>
+      <c r="AF122" s="8"/>
+      <c r="AG122" s="8"/>
+    </row>
+    <row r="123" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -16013,7 +17476,7 @@
       <c r="AB123" s="3"/>
       <c r="AC123" s="5"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -16043,7 +17506,7 @@
       <c r="AB124" s="3"/>
       <c r="AC124" s="5"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -16073,7 +17536,7 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="5"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -16103,7 +17566,7 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="5"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -16133,7 +17596,7 @@
       <c r="AB127" s="3"/>
       <c r="AC127" s="5"/>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
